--- a/lixiao/summary_2023-12/assess_绩效+软性考核表.xlsx
+++ b/lixiao/summary_2023-12/assess_绩效+软性考核表.xlsx
@@ -2219,10 +2219,8 @@
           <t/>
         </is>
       </c>
-      <c r="K7" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K7" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2272,10 +2270,8 @@
           <t/>
         </is>
       </c>
-      <c r="K8" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K8" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2376,10 +2372,8 @@
           <t/>
         </is>
       </c>
-      <c r="K10" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K10" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -2429,10 +2423,8 @@
           <t/>
         </is>
       </c>
-      <c r="K11" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K11" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2482,10 +2474,8 @@
           <t/>
         </is>
       </c>
-      <c r="K12" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K12" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2535,10 +2525,8 @@
           <t/>
         </is>
       </c>
-      <c r="K13" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K13" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2588,10 +2576,8 @@
           <t/>
         </is>
       </c>
-      <c r="K14" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K14" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2641,10 +2627,8 @@
           <t/>
         </is>
       </c>
-      <c r="K15" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K15" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2694,10 +2678,8 @@
           <t/>
         </is>
       </c>
-      <c r="K16" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K16" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2798,10 +2780,8 @@
           <t/>
         </is>
       </c>
-      <c r="K18" s="23" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="K18" s="23">
+        <v>0.063</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2936,8 +2916,8 @@
           <t>0.25+0.25=0.5</t>
         </is>
       </c>
-      <c r="J29" s="26" t="e">
-        <v>#N/A</v>
+      <c r="J29" s="26">
+        <v>1.13</v>
       </c>
       <c r="K29" s="52"/>
     </row>
@@ -2954,12 +2934,12 @@
           <t/>
         </is>
       </c>
-      <c r="H30" s="26" t="e">
-        <v>#N/A</v>
+      <c r="H30" s="26">
+        <v>0.63</v>
       </c>
       <c r="I30" s="51" t="inlineStr">
         <is>
-          <t>NA+NA+NA+NA+NA+NA+NA+NA+NA+NA=NA</t>
+          <t>0.063+0.063+0.063+0.063+0.063+0.063+0.063+0.063+0.063+0.063=0.63</t>
         </is>
       </c>
       <c r="J30" s="26"/>
